--- a/Unity/Assets/Config/Excel/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>#</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>带有强力攻击技能2</t>
+  </si>
+  <si>
+    <t>米克尔3</t>
+  </si>
+  <si>
+    <t>带有强力攻击技能3</t>
+  </si>
+  <si>
+    <t>米克尔4</t>
+  </si>
+  <si>
+    <t>带有强力攻击技能4</t>
   </si>
 </sst>
 </file>
@@ -117,6 +129,102 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -125,36 +233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,107 +243,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,13 +295,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +415,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,157 +451,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +486,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,45 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -565,160 +586,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,13 +1092,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J7"/>
+  <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1104,6 +1116,9 @@
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1234,6 +1249,64 @@
         <v>278</v>
       </c>
       <c r="J7" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:10">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>178</v>
+      </c>
+      <c r="J8" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:10">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>278</v>
+      </c>
+      <c r="J9" s="1">
         <v>78</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nova\Legends-Of-Heroes\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AF26C6-3D91-4406-AA32-84C5CB5D49D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF11044B-13BC-439A-9878-DD31CF0FFBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="6615" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11325" yWindow="12030" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -103,17 +103,35 @@
     <t>ModelName</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>Player</t>
+  </si>
+  <si>
+    <t>测试说明3</t>
+  </si>
+  <si>
+    <t>测试说明4</t>
+  </si>
+  <si>
+    <t>测试说明5</t>
+  </si>
+  <si>
+    <t>测试说明6</t>
+  </si>
+  <si>
+    <t>测试说明7</t>
+  </si>
+  <si>
+    <t>测试说明8</t>
+  </si>
+  <si>
+    <t>测试说明9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +151,12 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -475,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J9"/>
+  <dimension ref="C2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J10" sqref="J10:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -495,7 +519,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="3:10">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
@@ -509,7 +533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="3:10">
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
@@ -535,7 +559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="3:10">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -559,7 +583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="3:10">
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
@@ -583,9 +607,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:10" s="1" customFormat="1">
+    <row r="6" spans="3:10" s="1" customFormat="1">
       <c r="C6" s="1">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -609,91 +633,252 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="1" customFormat="1">
+    <row r="7" spans="3:10" s="1" customFormat="1">
       <c r="C7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" s="1" customFormat="1">
+      <c r="C8" s="1">
         <v>1002</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" s="1" customFormat="1">
+      <c r="C9" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" s="1" customFormat="1">
+      <c r="C10" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="1">
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:10" s="1" customFormat="1">
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1003</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>178</v>
-      </c>
-      <c r="J8" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1004</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>278</v>
-      </c>
-      <c r="J9" s="1">
+    <row r="12" spans="3:10">
+      <c r="C12" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="1">
         <v>78</v>
       </c>
     </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="1">
+        <v>1009</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="1">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nova\Legends-Of-Heroes\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF11044B-13BC-439A-9878-DD31CF0FFBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4788E23-84F1-41AC-8A15-A938EF55CC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11325" yWindow="12030" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="3750" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -70,30 +70,18 @@
     <t>string</t>
   </si>
   <si>
-    <t>米克尔</t>
-  </si>
-  <si>
     <t>带有强力攻击技能</t>
   </si>
   <si>
     <t>测试说明2</t>
   </si>
   <si>
-    <t>米克尔2</t>
-  </si>
-  <si>
     <t>带有强力攻击技能2</t>
   </si>
   <si>
-    <t>米克尔3</t>
-  </si>
-  <si>
     <t>带有强力攻击技能3</t>
   </si>
   <si>
-    <t>米克尔4</t>
-  </si>
-  <si>
     <t>带有强力攻击技能4</t>
   </si>
   <si>
@@ -125,6 +113,93 @@
   </si>
   <si>
     <t>测试说明9</t>
+  </si>
+  <si>
+    <t>IconName</t>
+  </si>
+  <si>
+    <t>Avatar0</t>
+  </si>
+  <si>
+    <t>Avatar1</t>
+  </si>
+  <si>
+    <t>Avatar2</t>
+  </si>
+  <si>
+    <t>Avatar3</t>
+  </si>
+  <si>
+    <t>Avatar4</t>
+  </si>
+  <si>
+    <t>Avatar5</t>
+  </si>
+  <si>
+    <t>Avatar6</t>
+  </si>
+  <si>
+    <t>Avatar7</t>
+  </si>
+  <si>
+    <t>Avatar8</t>
+  </si>
+  <si>
+    <t>Avatar9</t>
+  </si>
+  <si>
+    <t>Avatar10</t>
+  </si>
+  <si>
+    <t>Avatar11</t>
+  </si>
+  <si>
+    <t>艾希</t>
+  </si>
+  <si>
+    <t>伊泽瑞尔</t>
+  </si>
+  <si>
+    <t>盖伦</t>
+  </si>
+  <si>
+    <t>易大师</t>
+  </si>
+  <si>
+    <t>阿狸</t>
+  </si>
+  <si>
+    <t>小法师</t>
+  </si>
+  <si>
+    <t>瑞兹</t>
+  </si>
+  <si>
+    <t>潘森</t>
+  </si>
+  <si>
+    <t>赵信</t>
+  </si>
+  <si>
+    <t>武器大师</t>
+  </si>
+  <si>
+    <t>盲僧</t>
+  </si>
+  <si>
+    <t>阿木木</t>
+  </si>
+  <si>
+    <t>初始携带技能</t>
+  </si>
+  <si>
+    <t>BornSkills</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>1001,1002</t>
   </si>
 </sst>
 </file>
@@ -185,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +269,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:J17"/>
+  <dimension ref="C2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J17"/>
+      <selection activeCell="L6" sqref="L6:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -516,10 +596,12 @@
     <col min="8" max="8" width="7.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10">
+    <row r="2" spans="3:12">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,8 +614,11 @@
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="3:10">
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
@@ -553,13 +638,19 @@
         <v>8</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="3:10">
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -577,13 +668,19 @@
         <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="3:10">
+      <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
@@ -606,8 +703,14 @@
       <c r="J5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" s="1" customFormat="1">
+      <c r="K5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" s="1" customFormat="1">
       <c r="C6" s="1">
         <v>1000</v>
       </c>
@@ -618,22 +721,28 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" s="1" customFormat="1">
+      <c r="K6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" s="1" customFormat="1">
       <c r="C7" s="1">
         <v>1001</v>
       </c>
@@ -644,22 +753,28 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" s="1" customFormat="1">
+      <c r="K7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" s="1" customFormat="1">
       <c r="C8" s="1">
         <v>1002</v>
       </c>
@@ -667,25 +782,31 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" s="1" customFormat="1">
+      <c r="K8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" s="1" customFormat="1">
       <c r="C9" s="1">
         <v>1003</v>
       </c>
@@ -696,22 +817,28 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" s="1" customFormat="1">
+      <c r="K9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" s="1" customFormat="1">
       <c r="C10" s="1">
         <v>1004</v>
       </c>
@@ -719,25 +846,31 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="3:10">
+      <c r="K10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
       <c r="C11" s="1">
         <v>1005</v>
       </c>
@@ -745,19 +878,28 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="H11" s="1">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="3:10">
+      <c r="K11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12">
       <c r="C12" s="1">
         <v>1006</v>
       </c>
@@ -765,19 +907,28 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="H12" s="1">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="3:10">
+      <c r="K12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
       <c r="C13" s="1">
         <v>1007</v>
       </c>
@@ -785,19 +936,28 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="3:10">
+      <c r="K13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12">
       <c r="C14" s="1">
         <v>1008</v>
       </c>
@@ -805,19 +965,28 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="3:10">
+      <c r="K14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
       <c r="C15" s="1">
         <v>1009</v>
       </c>
@@ -825,19 +994,28 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="3:10">
+      <c r="K15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
       <c r="C16" s="1">
         <v>1010</v>
       </c>
@@ -845,19 +1023,28 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="3:10">
+      <c r="K16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
       <c r="C17" s="1">
         <v>1011</v>
       </c>
@@ -865,16 +1052,25 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1">
         <v>78</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nova\Legends-Of-Heroes\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4788E23-84F1-41AC-8A15-A938EF55CC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFD8773-F5A2-40B8-B40C-2BEB5B881874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="3750" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="1935" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
+    <sheet name="Unit" sheetId="1" r:id="rId1"/>
+    <sheet name="#说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
@@ -582,7 +583,7 @@
   <dimension ref="C2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:L17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1078,4 +1079,16 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D33B73C-2267-4B7F-802D-95390C8D1162}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nova\Legends-Of-Heroes\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFD8773-F5A2-40B8-B40C-2BEB5B881874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7299D163-E2F5-43D8-AA22-B41AB95D9237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="1935" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="4965" windowWidth="24285" windowHeight="15405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="1" r:id="rId1"/>
-    <sheet name="#说明" sheetId="2" r:id="rId2"/>
+    <sheet name="Bullet" sheetId="3" r:id="rId2"/>
+    <sheet name="#说明" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="63">
   <si>
     <t>#</t>
   </si>
@@ -201,6 +202,15 @@
   </si>
   <si>
     <t>1001,1002</t>
+  </si>
+  <si>
+    <t>常规子弹</t>
+  </si>
+  <si>
+    <t>朝前方移动的子弹</t>
+  </si>
+  <si>
+    <t>Bullet_001</t>
   </si>
 </sst>
 </file>
@@ -582,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -1082,6 +1092,172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EA41ED-8D5C-4563-9F25-C077E32AD52A}">
+  <dimension ref="C2:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:12">
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" s="1" customFormat="1">
+      <c r="C6" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D33B73C-2267-4B7F-802D-95390C8D1162}">
   <dimension ref="A1"/>
   <sheetViews>
